--- a/xlsx/thai_provinces.xlsx
+++ b/xlsx/thai_provinces.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -496,6 +496,720 @@
   </si>
   <si>
     <t>buogkan</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name_th</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>geography_id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>Nonthaburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>Pathum Thani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>Phra Nakhon Si Ayutthaya</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>Ang Thong</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ลพบุรี</t>
+  </si>
+  <si>
+    <t>Loburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สิงห์บุรี</t>
+  </si>
+  <si>
+    <t>Sing Buri</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ชัยนาท</t>
+  </si>
+  <si>
+    <t>Chai Nat</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สระบุรี</t>
+  </si>
+  <si>
+    <t>Saraburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>Chon Buri</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
+    <t>Rayong</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>จันทบุรี</t>
+  </si>
+  <si>
+    <t>Chanthaburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ตราด</t>
+  </si>
+  <si>
+    <t>Trat</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>Chachoengsao</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ปราจีนบุรี</t>
+  </si>
+  <si>
+    <t>Prachin Buri</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครนายก</t>
+  </si>
+  <si>
+    <t>Nakhon Nayok</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สระแก้ว</t>
+  </si>
+  <si>
+    <t>Sa Kaeo</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>Nakhon Ratchasima</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>บุรีรัมย์</t>
+  </si>
+  <si>
+    <t>Buri Ram</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
+  </si>
+  <si>
+    <t>Surin</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ศรีสะเกษ</t>
+  </si>
+  <si>
+    <t>Si Sa Ket</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ยโสธร</t>
+  </si>
+  <si>
+    <t>Yasothon</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ชัยภูมิ</t>
+  </si>
+  <si>
+    <t>Chaiyaphum</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อำนาจเจริญ</t>
+  </si>
+  <si>
+    <t>Amnat Charoen</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>หนองบัวลำภู</t>
+  </si>
+  <si>
+    <t>Nong Bua Lam Phu</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>Khon Kaen</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>Udon Thani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>เลย</t>
+  </si>
+  <si>
+    <t>Loei</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>หนองคาย</t>
+  </si>
+  <si>
+    <t>Nong Khai</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>มหาสารคาม</t>
+  </si>
+  <si>
+    <t>Maha Sarakham</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ร้อยเอ็ด</t>
+  </si>
+  <si>
+    <t>Roi Et</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>กาฬสินธุ์</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สกลนคร</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
+    <t>Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>มุกดาหาร</t>
+  </si>
+  <si>
+    <t>Mukdahan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>Chiang Mai</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ลำพูน</t>
+  </si>
+  <si>
+    <t>Lamphun</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ลำปาง</t>
+  </si>
+  <si>
+    <t>Lampang</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อุตรดิตถ์</t>
+  </si>
+  <si>
+    <t>Uttaradit</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>แพร่</t>
+  </si>
+  <si>
+    <t>Phrae</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>น่าน</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พะเยา</t>
+  </si>
+  <si>
+    <t>Phayao</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>Chiang Rai</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>แม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>Mae Hong Son</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
+    <t>Nakhon Sawan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>อุทัยธานี</t>
+  </si>
+  <si>
+    <t>Uthai Thani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>Kamphaeng Phet</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ตาก</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สุโขทัย</t>
+  </si>
+  <si>
+    <t>Sukhothai</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
+  </si>
+  <si>
+    <t>Phitsanulok</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พิจิตร</t>
+  </si>
+  <si>
+    <t>Phichit</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>เพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>Phetchabun</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>Ratchaburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>Kanchanaburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>Suphan Buri</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครปฐม</t>
+  </si>
+  <si>
+    <t>Nakhon Pathom</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>Samut Sakhon</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>Samut Songkhram</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>เพชรบุรี</t>
+  </si>
+  <si>
+    <t>Phetchaburi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ประจวบคีรีขันธ์</t>
+  </si>
+  <si>
+    <t>Prachuap Khiri Khan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>กระบี่</t>
+  </si>
+  <si>
+    <t>Krabi</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พังงา</t>
+  </si>
+  <si>
+    <t>Phangnga</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>Surat Thani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ระนอง</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ชุมพร</t>
+  </si>
+  <si>
+    <t>Chumphon</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>Songkhla</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>สตูล</t>
+  </si>
+  <si>
+    <t>Satun</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ตรัง</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>พัทลุง</t>
+  </si>
+  <si>
+    <t>Phatthalung</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ปัตตานี</t>
+  </si>
+  <si>
+    <t>Pattani</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>ยะลา</t>
+  </si>
+  <si>
+    <t>Yala</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>นราธิวาส</t>
+  </si>
+  <si>
+    <t>Narathiwat</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
+  </si>
+  <si>
+    <t>บึงกาฬ</t>
+  </si>
+  <si>
+    <t>buogkan</t>
+  </si>
+  <si>
+    <t>2022-05-16 06:31:03.648279</t>
   </si>
 </sst>
 </file>
@@ -519,7 +1233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -529,14 +1243,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G156"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2112,6 +2828,1569 @@
         <v>43686.148020833338</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F94" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F95" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>24</v>
+      </c>
+      <c r="B103" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F106" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>250</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F107" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>29</v>
+      </c>
+      <c r="B108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F111" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>33</v>
+      </c>
+      <c r="B112" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F112" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F115" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>38</v>
+      </c>
+      <c r="B117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F117" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" t="s">
+        <v>283</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>40</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F119" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" t="s">
+        <v>289</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F121" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F122" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>44</v>
+      </c>
+      <c r="B123" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" t="s">
+        <v>298</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F123" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F124" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>46</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" t="s">
+        <v>313</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>50</v>
+      </c>
+      <c r="B129" t="s">
+        <v>315</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>51</v>
+      </c>
+      <c r="B130" t="s">
+        <v>318</v>
+      </c>
+      <c r="C130" t="s">
+        <v>319</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F131" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>53</v>
+      </c>
+      <c r="B132" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" t="s">
+        <v>325</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>54</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" t="s">
+        <v>328</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F133" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>55</v>
+      </c>
+      <c r="B134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" t="s">
+        <v>331</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" t="s">
+        <v>334</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F135" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>57</v>
+      </c>
+      <c r="B136" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" t="s">
+        <v>337</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F136" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>339</v>
+      </c>
+      <c r="C137" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138" t="s">
+        <v>343</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" t="s">
+        <v>346</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F139" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>61</v>
+      </c>
+      <c r="B140" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" t="s">
+        <v>349</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F140" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>351</v>
+      </c>
+      <c r="C141" t="s">
+        <v>352</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>63</v>
+      </c>
+      <c r="B142" t="s">
+        <v>354</v>
+      </c>
+      <c r="C142" t="s">
+        <v>355</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F142" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>64</v>
+      </c>
+      <c r="B143" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F143" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>360</v>
+      </c>
+      <c r="C144" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>66</v>
+      </c>
+      <c r="B145" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>67</v>
+      </c>
+      <c r="B146" t="s">
+        <v>366</v>
+      </c>
+      <c r="C146" t="s">
+        <v>367</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>68</v>
+      </c>
+      <c r="B147" t="s">
+        <v>369</v>
+      </c>
+      <c r="C147" t="s">
+        <v>370</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F147" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>69</v>
+      </c>
+      <c r="B148" t="s">
+        <v>372</v>
+      </c>
+      <c r="C148" t="s">
+        <v>373</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F148" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>375</v>
+      </c>
+      <c r="C149" t="s">
+        <v>376</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F149" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>71</v>
+      </c>
+      <c r="B150" t="s">
+        <v>378</v>
+      </c>
+      <c r="C150" t="s">
+        <v>379</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F150" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>72</v>
+      </c>
+      <c r="B151" t="s">
+        <v>381</v>
+      </c>
+      <c r="C151" t="s">
+        <v>382</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F151" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>73</v>
+      </c>
+      <c r="B152" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" t="s">
+        <v>385</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F152" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" t="s">
+        <v>388</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F153" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>75</v>
+      </c>
+      <c r="B154" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" t="s">
+        <v>391</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F154" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>76</v>
+      </c>
+      <c r="B155" t="s">
+        <v>393</v>
+      </c>
+      <c r="C155" t="s">
+        <v>394</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F155" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>77</v>
+      </c>
+      <c r="B156" t="s">
+        <v>396</v>
+      </c>
+      <c r="C156" t="s">
+        <v>397</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" s="3">
+        <v>43686.148020833338</v>
+      </c>
+      <c r="F156" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>